--- a/summary_densitydata.xlsx
+++ b/summary_densitydata.xlsx
@@ -12,20 +12,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>SWE1</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SWE2</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SWE3</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>SWE4</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>SWE5</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>SWE6</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>SWE7</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>SWE8</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>SWE9</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>G04_Z3A_SWE</t>
+  </si>
+  <si>
     <t>density</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>G02_LSP</t>
   </si>
   <si>
@@ -50,72 +110,12 @@
     <t>G13_LSP</t>
   </si>
   <si>
-    <t>SWE1</t>
-  </si>
-  <si>
     <t>G13_USP</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SWE2</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>SWE3</t>
-  </si>
-  <si>
     <t>G13_ASP</t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>SWE4</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>SWE5</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>SWE6</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>SWE7</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>SWE8</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>SWE9</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
-    <t>G04_Z3A_SWE</t>
-  </si>
-  <si>
     <t>G04_Z2A_SWE</t>
   </si>
   <si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>G02_Z7C_SWE</t>
+  </si>
+  <si>
+    <t>G03_Z3B_SWE</t>
   </si>
   <si>
     <t>GL13_ASP</t>
@@ -256,15 +259,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
@@ -272,7 +269,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -294,6 +297,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
@@ -324,156 +339,156 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5">
         <v>362.84</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>598830.956872462</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>6755272.76759921</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
         <v>400.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>599197.57</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>6754686.13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5">
         <v>323.36</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>600044.719257886</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>6754368.04943599</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
         <v>298.8235294118</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>601779.320498905</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>6753115.5549246</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5">
         <v>298.82</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>596454.888567045</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>6739984.58756568</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
         <v>322.26</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>595510.630882847</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>6740736.35252594</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5">
         <v>368.26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>595126.583444399</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>6742232.89922962</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5">
         <v>358.0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>603270.56558006</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>6764638.61521979</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5">
         <v>355.7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>604509.073083514</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>6763342.34093057</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5">
         <v>303.46</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>606342.040716066</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>6761736.67808849</v>
       </c>
     </row>
@@ -511,84 +526,84 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>321.05</v>
       </c>
       <c r="C2" s="6">
         <v>0.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>321.24</v>
       </c>
       <c r="E2" s="6">
@@ -625,8 +640,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
+      <c r="A3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="8">
         <v>322.98</v>
@@ -634,7 +649,7 @@
       <c r="C3" s="6">
         <v>1.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>265.82</v>
       </c>
       <c r="E3" s="6">
@@ -670,7 +685,7 @@
       <c r="O3" s="6">
         <v>1.0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>303.03</v>
       </c>
       <c r="Q3" s="6">
@@ -682,15 +697,15 @@
       <c r="S3" s="6">
         <v>1.0</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="5">
         <v>595510.630882847</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="5">
         <v>6740736.35252594</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="7">
@@ -722,8 +737,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="7">
         <v>374.3</v>
@@ -731,13 +746,13 @@
       <c r="C5" s="6">
         <v>1.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>344.44</v>
       </c>
       <c r="E5" s="6">
         <v>0.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>324.02</v>
       </c>
       <c r="G5" s="6">
@@ -779,18 +794,18 @@
       <c r="S5" s="6">
         <v>1.0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="5">
         <v>596454.888567045</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="5">
         <v>6739984.58756568</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>407.89</v>
       </c>
       <c r="C6" s="6">
@@ -818,7 +833,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="7">
@@ -855,19 +870,19 @@
       <c r="B8" s="10">
         <v>335.94</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>1.0</v>
       </c>
       <c r="D8" s="10">
         <v>328.13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>1.0</v>
       </c>
       <c r="F8" s="11">
         <v>169.23</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>0.0</v>
       </c>
       <c r="H8" s="12"/>
@@ -888,12 +903,12 @@
       <c r="U8" s="10">
         <v>6741167.0</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="1">
         <v>2332.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="7">
@@ -908,7 +923,7 @@
       <c r="E9" s="6">
         <v>1.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>241.38</v>
       </c>
       <c r="G9" s="6">
@@ -922,10 +937,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4">
         <v>160.38</v>
       </c>
       <c r="C10" s="6">
@@ -967,7 +982,7 @@
       <c r="O10" s="6">
         <v>1.0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>290.32</v>
       </c>
       <c r="Q10" s="6">
@@ -979,15 +994,15 @@
       <c r="S10" s="6">
         <v>1.0</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="5">
         <v>600044.719257886</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="5">
         <v>6754368.04943599</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7">
@@ -1016,7 +1031,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="7">
@@ -1045,798 +1060,884 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>299.21</v>
       </c>
-      <c r="C13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="7">
         <v>295.45</v>
       </c>
-      <c r="E13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="E13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="7">
         <v>306.45</v>
       </c>
-      <c r="G13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="10">
+      <c r="G13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T13" s="7">
         <v>600852.0</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="7">
         <v>6753799.0</v>
       </c>
-      <c r="V13" s="12"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="13">
+        <v>246.3337709447</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="13">
+        <v>251.3609907599</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>232.2338581297</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>598954.0</v>
+      </c>
+      <c r="U14" s="13">
+        <v>6755390.0</v>
+      </c>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14">
+        <v>263.46</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>261.26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>231.66</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>261.26</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>234.19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>233.68</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>257.12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>245.79</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="16">
+        <v>598830.956870471</v>
+      </c>
+      <c r="U15" s="16">
+        <v>6755272.76759809</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7">
         <v>346.67</v>
       </c>
-      <c r="C14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="7">
         <v>344.83</v>
       </c>
-      <c r="E14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="7">
         <v>351.35</v>
       </c>
-      <c r="G14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="7">
         <v>342.28</v>
       </c>
-      <c r="I14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="7">
         <v>350.36</v>
       </c>
-      <c r="K14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L16" s="7">
         <v>350.36</v>
       </c>
-      <c r="M14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N14" s="7">
+      <c r="M16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="7">
         <v>360.54</v>
       </c>
-      <c r="O14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="O16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P16" s="7">
         <v>344.83</v>
       </c>
-      <c r="Q14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="Q16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T16" s="5">
         <v>595126.583444399</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U16" s="5">
         <v>6742232.89922962</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V16" s="7">
         <v>2517.0</v>
       </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4">
         <v>294.57</v>
       </c>
-      <c r="C15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="4">
         <v>286.82</v>
       </c>
-      <c r="E15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="4">
         <v>322.83</v>
       </c>
-      <c r="G15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="T15" s="2">
+      <c r="G17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="T17" s="5">
         <v>606370.157387766</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U17" s="5">
         <v>6761967.14383023</v>
       </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="7">
-        <v>344.83</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>366.67</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>343.64</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T16" s="7">
-        <v>606318.0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>6761532.0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>2524.0</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="5">
-        <v>324.32</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>330.43</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>355.56</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>326.09</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>606299.0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>6741270.0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>2535.0</v>
-      </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="5">
-        <v>307.09</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="7">
+        <v>344.83</v>
       </c>
       <c r="C18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>339.92</v>
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>366.67</v>
       </c>
       <c r="E18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>338.35</v>
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>343.64</v>
       </c>
       <c r="G18" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T18" s="7">
-        <v>606275.0</v>
+        <v>606318.0</v>
       </c>
       <c r="U18" s="7">
-        <v>6760989.0</v>
+        <v>6761532.0</v>
       </c>
       <c r="V18" s="7">
-        <v>2546.0</v>
-      </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="2"/>
+        <v>2524.0</v>
+      </c>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="7">
-        <v>386.55</v>
+        <v>46</v>
+      </c>
+      <c r="B19" s="4">
+        <v>324.32</v>
       </c>
       <c r="C19" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" s="7">
-        <v>323.53</v>
+        <v>330.43</v>
       </c>
       <c r="E19" s="6">
         <v>1.0</v>
       </c>
       <c r="F19" s="7">
-        <v>294.12</v>
+        <v>355.56</v>
       </c>
       <c r="G19" s="6">
         <v>1.0</v>
       </c>
+      <c r="H19" s="8">
+        <v>326.09</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.0</v>
+      </c>
       <c r="T19" s="7">
-        <v>606253.0</v>
+        <v>606299.0</v>
       </c>
       <c r="U19" s="7">
-        <v>6760715.0</v>
+        <v>6741270.0</v>
       </c>
       <c r="V19" s="7">
-        <v>2573.0</v>
-      </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="2"/>
+        <v>2535.0</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="7">
-        <v>340.43</v>
+        <v>47</v>
+      </c>
+      <c r="B20" s="4">
+        <v>307.09</v>
       </c>
       <c r="C20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>363.64</v>
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>339.92</v>
       </c>
       <c r="E20" s="6">
         <v>0.0</v>
       </c>
-      <c r="F20" s="5">
-        <v>217.39</v>
+      <c r="F20" s="4">
+        <v>338.35</v>
       </c>
       <c r="G20" s="6">
         <v>0.0</v>
       </c>
       <c r="T20" s="7">
-        <v>606397.0</v>
+        <v>606275.0</v>
       </c>
       <c r="U20" s="7">
-        <v>6761622.0</v>
+        <v>6760989.0</v>
       </c>
       <c r="V20" s="7">
-        <v>2532.0</v>
-      </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+        <v>2546.0</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7">
-        <v>313.25</v>
+        <v>386.55</v>
       </c>
       <c r="C21" s="6">
         <v>1.0</v>
       </c>
       <c r="D21" s="7">
-        <v>333.33</v>
+        <v>323.53</v>
       </c>
       <c r="E21" s="6">
         <v>1.0</v>
       </c>
       <c r="F21" s="7">
-        <v>362.75</v>
+        <v>294.12</v>
       </c>
       <c r="G21" s="6">
         <v>1.0</v>
       </c>
       <c r="T21" s="7">
-        <v>606142.0</v>
+        <v>606253.0</v>
       </c>
       <c r="U21" s="7">
-        <v>6761205.0</v>
+        <v>6760715.0</v>
       </c>
       <c r="V21" s="7">
-        <v>2526.0</v>
-      </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+        <v>2573.0</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="7">
-        <v>328.77</v>
+        <v>340.43</v>
       </c>
       <c r="C22" s="6">
         <v>1.0</v>
       </c>
-      <c r="D22" s="7">
-        <v>263.16</v>
+      <c r="D22" s="4">
+        <v>363.64</v>
       </c>
       <c r="E22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>320.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>217.39</v>
       </c>
       <c r="G22" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T22" s="7">
-        <v>606083.0</v>
+        <v>606397.0</v>
       </c>
       <c r="U22" s="7">
-        <v>6762163.0</v>
+        <v>6761622.0</v>
       </c>
       <c r="V22" s="7">
-        <v>2483.0</v>
-      </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="2"/>
+        <v>2532.0</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7">
-        <v>303.28</v>
+        <v>313.25</v>
       </c>
       <c r="C23" s="6">
         <v>1.0</v>
       </c>
-      <c r="D23" s="5">
-        <v>204.38</v>
+      <c r="D23" s="7">
+        <v>333.33</v>
       </c>
       <c r="E23" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" s="7">
-        <v>335.71</v>
+        <v>362.75</v>
       </c>
       <c r="G23" s="6">
         <v>1.0</v>
       </c>
       <c r="T23" s="7">
-        <v>605969.0</v>
+        <v>606142.0</v>
       </c>
       <c r="U23" s="7">
-        <v>6762550.0</v>
+        <v>6761205.0</v>
       </c>
       <c r="V23" s="7">
-        <v>2419.0</v>
-      </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+        <v>2526.0</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7">
+        <v>328.77</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>263.16</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>320.0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>606083.0</v>
+      </c>
+      <c r="U24" s="7">
+        <v>6762163.0</v>
+      </c>
+      <c r="V24" s="7">
+        <v>2483.0</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="7">
+        <v>303.28</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>204.38</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>335.71</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>605969.0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>6762550.0</v>
+      </c>
+      <c r="V25" s="7">
+        <v>2419.0</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7">
         <v>303.92</v>
       </c>
-      <c r="C24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="7">
         <v>331.75</v>
       </c>
-      <c r="E24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="7">
         <v>307.69</v>
       </c>
-      <c r="G24" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T24" s="7">
+      <c r="G26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T26" s="7">
         <v>605121.0</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U26" s="7">
         <v>6762899.0</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V26" s="7">
         <v>2321.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="8">
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="8">
         <v>247.19</v>
       </c>
-      <c r="C25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="7">
         <v>277.11</v>
       </c>
-      <c r="E25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F27" s="7">
         <v>271.6</v>
       </c>
-      <c r="G25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T25" s="7">
+      <c r="G27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T27" s="7">
         <v>604708.0</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U27" s="7">
         <v>6762812.0</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V27" s="17">
         <v>2296.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7">
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="7">
         <v>310.34</v>
       </c>
-      <c r="C26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="7">
         <v>327.49</v>
       </c>
-      <c r="E26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F28" s="7">
         <v>328.77</v>
       </c>
-      <c r="G26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="7">
         <v>331.13</v>
       </c>
-      <c r="I26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="I28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="8">
         <v>262.5</v>
       </c>
-      <c r="K26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="8">
+      <c r="K28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L28" s="8">
         <v>259.26</v>
       </c>
-      <c r="M26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="7">
         <v>301.2</v>
       </c>
-      <c r="O26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P26" s="7">
+      <c r="O28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P28" s="7">
         <v>301.2</v>
       </c>
-      <c r="Q26" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T26" s="2">
+      <c r="Q28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T28" s="5">
         <v>604509.073083514</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U28" s="5">
         <v>6763342.34093057</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V28" s="7">
         <v>2257.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4">
         <v>370.08</v>
       </c>
-      <c r="C27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="7">
         <v>407.69</v>
       </c>
-      <c r="E27" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="4">
         <v>488.37</v>
       </c>
-      <c r="G27" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="T27" s="7">
+      <c r="G29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="T29" s="7">
         <v>603904.0</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U29" s="7">
         <v>6764001.0</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V29" s="17">
         <v>2206.0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="7">
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7">
         <v>250.0</v>
       </c>
-      <c r="C28" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="7">
         <v>225.0</v>
       </c>
-      <c r="E28" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="7">
         <v>243.9</v>
       </c>
-      <c r="G28" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T28" s="7">
+      <c r="G30" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T30" s="7">
         <v>603925.0</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U30" s="7">
         <v>6764029.0</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V30" s="7">
         <v>2206.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="7">
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="7">
         <v>275.0</v>
       </c>
-      <c r="C29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="7">
         <v>268.29</v>
       </c>
-      <c r="E29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="6">
         <v>260.87</v>
       </c>
-      <c r="G29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T29" s="7">
+      <c r="G31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T31" s="7">
         <v>603569.0</v>
       </c>
-      <c r="U29" s="7">
+      <c r="U31" s="7">
         <v>6764536.0</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V31" s="17">
         <v>2156.0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="7">
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="7">
         <v>274.51</v>
       </c>
-      <c r="C30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="4">
         <v>207.55</v>
       </c>
-      <c r="E30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="7">
         <v>306.12</v>
       </c>
-      <c r="G30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T30" s="7">
+      <c r="G32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T32" s="7">
         <v>603927.0</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U32" s="7">
         <v>6764001.0</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V32" s="17">
         <v>2214.0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="7">
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="7">
         <v>277.78</v>
       </c>
-      <c r="C31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="7">
         <v>273.68</v>
       </c>
-      <c r="E31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="4">
         <v>236.02</v>
       </c>
-      <c r="G31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="7">
         <v>243.09</v>
       </c>
-      <c r="I31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T31" s="7">
+      <c r="I33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T33" s="7">
         <v>604583.0</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U33" s="7">
         <v>6763779.0</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V33" s="17">
         <v>2246.0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="5">
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4">
         <v>276.32</v>
       </c>
-      <c r="C32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="7">
         <v>318.47</v>
       </c>
-      <c r="E32" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="4">
         <v>251.66</v>
       </c>
-      <c r="G32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="G34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="7">
         <v>324.68</v>
       </c>
-      <c r="I32" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="T32" s="7">
+      <c r="I34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="T34" s="7">
         <v>603843.0</v>
       </c>
-      <c r="U32" s="7">
+      <c r="U34" s="7">
         <v>6763492.0</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V34" s="17">
         <v>2216.0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-    </row>
-    <row r="35">
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
+    <row r="36">
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
     </row>
     <row r="37">
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-    </row>
-    <row r="38">
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+    </row>
+    <row r="39">
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
     </row>
     <row r="40">
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-    </row>
-    <row r="41">
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+    </row>
+    <row r="42">
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+    </row>
+    <row r="43">
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/summary_densitydata.xlsx
+++ b/summary_densitydata.xlsx
@@ -12,11 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
     <t>SWE1</t>
   </si>
   <si>
@@ -71,21 +83,9 @@
     <t>Q9</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
     <t>G04_Z3A_SWE</t>
   </si>
   <si>
-    <t>density</t>
-  </si>
-  <si>
     <t>G02_LSP</t>
   </si>
   <si>
@@ -140,13 +140,10 @@
     <t>G02_Z7C_SWE</t>
   </si>
   <si>
-    <t>G03_Z3B_SWE</t>
-  </si>
-  <si>
-    <t>GL13_ASP</t>
-  </si>
-  <si>
-    <t>GL13_AFC05</t>
+    <t>G02_Z3B_SWE</t>
+  </si>
+  <si>
+    <t>G13_AFC05</t>
   </si>
   <si>
     <t>G13_651</t>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>G13_Z7C_SWE</t>
-  </si>
-  <si>
-    <t>G13_USP_SWE</t>
   </si>
   <si>
     <t>G13_Z4C_SWE</t>
@@ -263,23 +257,23 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -339,21 +333,24 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5">
@@ -365,9 +362,12 @@
       <c r="D2" s="5">
         <v>6755272.76759921</v>
       </c>
+      <c r="E2" s="3">
+        <v>2175.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="5">
@@ -379,9 +379,12 @@
       <c r="D3" s="5">
         <v>6754686.13</v>
       </c>
+      <c r="E3" s="3">
+        <v>2261.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="5">
@@ -393,9 +396,12 @@
       <c r="D4" s="5">
         <v>6754368.04943599</v>
       </c>
+      <c r="E4" s="3">
+        <v>2349.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="5">
@@ -407,9 +413,12 @@
       <c r="D5" s="5">
         <v>6753115.5549246</v>
       </c>
+      <c r="E5" s="3">
+        <v>2550.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="5">
@@ -421,9 +430,12 @@
       <c r="D6" s="5">
         <v>6739984.58756568</v>
       </c>
+      <c r="E6" s="3">
+        <v>2154.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="5">
@@ -435,9 +447,12 @@
       <c r="D7" s="5">
         <v>6740736.35252594</v>
       </c>
+      <c r="E7" s="3">
+        <v>2298.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="5">
@@ -449,9 +464,12 @@
       <c r="D8" s="5">
         <v>6742232.89922962</v>
       </c>
+      <c r="E8" s="3">
+        <v>2482.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="5">
@@ -463,9 +481,12 @@
       <c r="D9" s="5">
         <v>6764638.61521979</v>
       </c>
+      <c r="E9" s="3">
+        <v>2139.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="5">
@@ -477,9 +498,12 @@
       <c r="D10" s="5">
         <v>6763342.34093057</v>
       </c>
+      <c r="E10" s="3">
+        <v>2257.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="5">
@@ -490,6 +514,9 @@
       </c>
       <c r="D11" s="5">
         <v>6761736.67808849</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2516.0</v>
       </c>
     </row>
   </sheetData>
@@ -526,105 +553,105 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
         <v>321.05</v>
       </c>
-      <c r="C2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="6">
         <v>321.24</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>0.0</v>
       </c>
       <c r="F2" s="7">
         <v>361.26</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>1.0</v>
       </c>
       <c r="H2" s="7">
         <v>378.95</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>1.0</v>
       </c>
       <c r="J2" s="7">
         <v>370.56</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>1.0</v>
       </c>
       <c r="R2" s="7"/>
@@ -640,61 +667,61 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8">
         <v>322.98</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="6">
         <v>265.82</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>0.0</v>
       </c>
       <c r="F3" s="7">
         <v>355.03</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
       <c r="H3" s="7">
         <v>363.64</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>1.0</v>
       </c>
       <c r="J3" s="7">
         <v>364.16</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>1.0</v>
       </c>
       <c r="L3" s="7">
         <v>327.59</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>1.0</v>
       </c>
       <c r="N3" s="7">
         <v>337.35</v>
       </c>
-      <c r="O3" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="O3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P3" s="6">
         <v>303.03</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="3">
         <v>0.0</v>
       </c>
       <c r="R3" s="7">
         <v>363.1</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="3">
         <v>1.0</v>
       </c>
       <c r="T3" s="5">
@@ -703,30 +730,33 @@
       <c r="U3" s="5">
         <v>6740736.35252594</v>
       </c>
+      <c r="V3" s="3">
+        <v>2298.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="7">
         <v>352.94</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>1.0</v>
       </c>
       <c r="D4" s="7">
         <v>374.33</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>1.0</v>
       </c>
       <c r="F4" s="7">
         <v>377.14</v>
       </c>
-      <c r="G4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="G4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7">
@@ -735,63 +765,66 @@
       <c r="U4" s="7">
         <v>6739965.0</v>
       </c>
+      <c r="V4" s="3">
+        <v>2162.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="7">
         <v>374.3</v>
       </c>
-      <c r="C5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="6">
         <v>344.44</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="6">
         <v>324.02</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>0.0</v>
       </c>
       <c r="H5" s="7">
         <v>372.34</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>1.0</v>
       </c>
       <c r="J5" s="7">
         <v>376.34</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>1.0</v>
       </c>
       <c r="L5" s="7">
         <v>372.97</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>1.0</v>
       </c>
       <c r="N5" s="7">
         <v>362.16</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="3">
         <v>1.0</v>
       </c>
       <c r="P5" s="7">
         <v>375.66</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="3">
         <v>1.0</v>
       </c>
       <c r="R5" s="7">
         <v>372.97</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="3">
         <v>1.0</v>
       </c>
       <c r="T5" s="5">
@@ -800,27 +833,30 @@
       <c r="U5" s="5">
         <v>6739984.58756568</v>
       </c>
+      <c r="V5" s="3">
+        <v>2154.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>407.89</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>0.0</v>
       </c>
       <c r="D6" s="7">
         <v>362.57</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>1.0</v>
       </c>
       <c r="F6" s="7">
         <v>356.32</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>1.0</v>
       </c>
       <c r="R6" s="7"/>
@@ -831,27 +867,30 @@
       <c r="U6" s="7">
         <v>6741154.0</v>
       </c>
+      <c r="V6" s="3">
+        <v>2360.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="7">
         <v>329.9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1.0</v>
       </c>
       <c r="D7" s="7">
         <v>331.63</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>1.0</v>
       </c>
       <c r="F7" s="7">
         <v>321.24</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>1.0</v>
       </c>
       <c r="R7" s="7"/>
@@ -862,6 +901,9 @@
       <c r="U7" s="7">
         <v>6740736.0</v>
       </c>
+      <c r="V7" s="3">
+        <v>2328.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -870,19 +912,19 @@
       <c r="B8" s="10">
         <v>335.94</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="10">
         <v>328.13</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1.0</v>
       </c>
       <c r="F8" s="11">
         <v>169.23</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.0</v>
       </c>
       <c r="H8" s="12"/>
@@ -903,30 +945,30 @@
       <c r="U8" s="10">
         <v>6741167.0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="2">
         <v>2332.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="7">
         <v>283.19</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>1.0</v>
       </c>
       <c r="D9" s="7">
         <v>263.64</v>
       </c>
-      <c r="E9" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="6">
         <v>241.38</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>0.0</v>
       </c>
       <c r="T9" s="7">
@@ -935,63 +977,66 @@
       <c r="U9" s="7">
         <v>6754533.0</v>
       </c>
+      <c r="V9" s="3">
+        <v>2332.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>160.38</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>0.0</v>
       </c>
       <c r="D10" s="7">
         <v>269.23</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1.0</v>
       </c>
       <c r="F10" s="7">
         <v>271.84</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>1.0</v>
       </c>
       <c r="H10" s="7">
         <v>268.52</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>1.0</v>
       </c>
       <c r="J10" s="7">
         <v>266.67</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>1.0</v>
       </c>
       <c r="L10" s="7">
         <v>300.0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>1.0</v>
       </c>
       <c r="N10" s="7">
         <v>299.15</v>
       </c>
-      <c r="O10" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="O10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="P10" s="6">
         <v>290.32</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="3">
         <v>0.0</v>
       </c>
       <c r="R10" s="7">
         <v>307.69</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="3">
         <v>1.0</v>
       </c>
       <c r="T10" s="5">
@@ -1000,27 +1045,30 @@
       <c r="U10" s="5">
         <v>6754368.04943599</v>
       </c>
+      <c r="V10" s="3">
+        <v>2349.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="7">
         <v>326.02</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1.0</v>
       </c>
       <c r="D11" s="7">
         <v>369.39</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1.0</v>
       </c>
       <c r="F11" s="7">
         <v>329.27</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>1.0</v>
       </c>
       <c r="T11" s="7">
@@ -1029,27 +1077,30 @@
       <c r="U11" s="7">
         <v>6754216.0</v>
       </c>
+      <c r="V11" s="3">
+        <v>2403.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="7">
         <v>302.63</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>1.0</v>
       </c>
       <c r="D12" s="8">
         <v>291.39</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>1.0</v>
       </c>
       <c r="F12" s="7">
         <v>309.21</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>1.0</v>
       </c>
       <c r="T12" s="7">
@@ -1058,27 +1109,30 @@
       <c r="U12" s="7">
         <v>6754169.0</v>
       </c>
+      <c r="V12" s="3">
+        <v>2458.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="7">
         <v>299.21</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1.0</v>
       </c>
       <c r="D13" s="7">
         <v>295.45</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>1.0</v>
       </c>
       <c r="F13" s="7">
         <v>306.45</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>1.0</v>
       </c>
       <c r="T13" s="7">
@@ -1087,31 +1141,34 @@
       <c r="U13" s="7">
         <v>6753799.0</v>
       </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
+      <c r="V13" s="3">
+        <v>2442.0</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="13">
         <v>246.3337709447</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>1.0</v>
       </c>
       <c r="D14" s="13">
         <v>251.3609907599</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>1.0</v>
       </c>
       <c r="F14" s="13">
         <v>232.2338581297</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>1.0</v>
       </c>
       <c r="T14" s="13">
@@ -1120,10 +1177,13 @@
       <c r="U14" s="13">
         <v>6755390.0</v>
       </c>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="V14" s="3">
+        <v>2172.0</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
@@ -1132,49 +1192,49 @@
       <c r="B15" s="14">
         <v>263.46</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="14">
         <v>261.26</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>1.0</v>
       </c>
       <c r="F15" s="15">
         <v>231.66</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0.0</v>
       </c>
       <c r="H15" s="14">
         <v>261.26</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>1.0</v>
       </c>
       <c r="J15" s="14">
         <v>234.19</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>1.0</v>
       </c>
       <c r="L15" s="14">
         <v>233.68</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>1.0</v>
       </c>
       <c r="N15" s="14">
         <v>257.12</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>1.0</v>
       </c>
       <c r="P15" s="14">
         <v>245.79</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>1.0</v>
       </c>
       <c r="R15" s="12"/>
@@ -1185,62 +1245,64 @@
       <c r="U15" s="16">
         <v>6755272.76759809</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
+      <c r="V15" s="2">
+        <v>2175.0</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
+      <c r="A16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B16" s="7">
         <v>346.67</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>1.0</v>
       </c>
       <c r="D16" s="7">
         <v>344.83</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>1.0</v>
       </c>
       <c r="F16" s="7">
         <v>351.35</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>1.0</v>
       </c>
       <c r="H16" s="7">
         <v>342.28</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>1.0</v>
       </c>
       <c r="J16" s="7">
         <v>350.36</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="3">
         <v>1.0</v>
       </c>
       <c r="L16" s="7">
         <v>350.36</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>1.0</v>
       </c>
       <c r="N16" s="7">
         <v>360.54</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="3">
         <v>1.0</v>
       </c>
       <c r="P16" s="7">
         <v>344.83</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="3">
         <v>1.0</v>
       </c>
       <c r="T16" s="5">
@@ -1252,65 +1314,65 @@
       <c r="V16" s="7">
         <v>2517.0</v>
       </c>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6">
         <v>294.57</v>
       </c>
-      <c r="C17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="6">
         <v>286.82</v>
       </c>
-      <c r="E17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="6">
         <v>322.83</v>
       </c>
-      <c r="G17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="6"/>
+      <c r="G17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="3"/>
       <c r="T17" s="5">
         <v>606370.157387766</v>
       </c>
       <c r="U17" s="5">
         <v>6761967.14383023</v>
       </c>
-      <c r="Y17" s="3"/>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
+      <c r="A18" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B18" s="7">
         <v>344.83</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>1.0</v>
       </c>
       <c r="D18" s="7">
         <v>366.67</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>1.0</v>
       </c>
       <c r="F18" s="7">
         <v>343.64</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>1.0</v>
       </c>
       <c r="T18" s="7">
@@ -1322,37 +1384,37 @@
       <c r="V18" s="7">
         <v>2524.0</v>
       </c>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="6">
         <v>324.32</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>0.0</v>
       </c>
       <c r="D19" s="7">
         <v>330.43</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>1.0</v>
       </c>
       <c r="F19" s="7">
         <v>355.56</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>1.0</v>
       </c>
       <c r="H19" s="8">
         <v>326.09</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>1.0</v>
       </c>
       <c r="T19" s="7">
@@ -1364,31 +1426,31 @@
       <c r="V19" s="7">
         <v>2535.0</v>
       </c>
-      <c r="Y19" s="3"/>
+      <c r="Y19" s="1"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6">
         <v>307.09</v>
       </c>
-      <c r="C20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="6">
         <v>339.92</v>
       </c>
-      <c r="E20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="6">
         <v>338.35</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>0.0</v>
       </c>
       <c r="T20" s="7">
@@ -1400,29 +1462,29 @@
       <c r="V20" s="7">
         <v>2546.0</v>
       </c>
-      <c r="Y20" s="3"/>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>48</v>
+      <c r="A21" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="7">
         <v>386.55</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>1.0</v>
       </c>
       <c r="D21" s="7">
         <v>323.53</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>1.0</v>
       </c>
       <c r="F21" s="7">
         <v>294.12</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>1.0</v>
       </c>
       <c r="T21" s="7">
@@ -1434,29 +1496,29 @@
       <c r="V21" s="7">
         <v>2573.0</v>
       </c>
-      <c r="Y21" s="3"/>
+      <c r="Y21" s="1"/>
       <c r="Z21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>49</v>
+      <c r="A22" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="7">
         <v>340.43</v>
       </c>
-      <c r="C22" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="6">
         <v>363.64</v>
       </c>
-      <c r="E22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="6">
         <v>217.39</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>0.0</v>
       </c>
       <c r="T22" s="7">
@@ -1468,31 +1530,31 @@
       <c r="V22" s="7">
         <v>2532.0</v>
       </c>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="1"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
+      <c r="A23" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="7">
         <v>313.25</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>1.0</v>
       </c>
       <c r="D23" s="7">
         <v>333.33</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>1.0</v>
       </c>
       <c r="F23" s="7">
         <v>362.75</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>1.0</v>
       </c>
       <c r="T23" s="7">
@@ -1504,31 +1566,31 @@
       <c r="V23" s="7">
         <v>2526.0</v>
       </c>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="1"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>51</v>
+      <c r="A24" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B24" s="7">
         <v>328.77</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>1.0</v>
       </c>
       <c r="D24" s="7">
         <v>263.16</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>1.0</v>
       </c>
       <c r="F24" s="7">
         <v>320.0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>1.0</v>
       </c>
       <c r="T24" s="7">
@@ -1540,29 +1602,29 @@
       <c r="V24" s="7">
         <v>2483.0</v>
       </c>
-      <c r="Y24" s="3"/>
+      <c r="Y24" s="1"/>
       <c r="Z24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>52</v>
+      <c r="A25" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="7">
         <v>303.28</v>
       </c>
-      <c r="C25" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="C25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="6">
         <v>204.38</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>0.0</v>
       </c>
       <c r="F25" s="7">
         <v>335.71</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <v>1.0</v>
       </c>
       <c r="T25" s="7">
@@ -1574,31 +1636,31 @@
       <c r="V25" s="7">
         <v>2419.0</v>
       </c>
-      <c r="Y25" s="3"/>
+      <c r="Y25" s="1"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>53</v>
+      <c r="A26" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="7">
         <v>303.92</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>1.0</v>
       </c>
       <c r="D26" s="7">
         <v>331.75</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>1.0</v>
       </c>
       <c r="F26" s="7">
         <v>307.69</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>1.0</v>
       </c>
       <c r="T26" s="7">
@@ -1612,25 +1674,25 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
+      <c r="A27" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="8">
         <v>247.19</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>1.0</v>
       </c>
       <c r="D27" s="7">
         <v>277.11</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>1.0</v>
       </c>
       <c r="F27" s="7">
         <v>271.6</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>1.0</v>
       </c>
       <c r="T27" s="7">
@@ -1644,55 +1706,55 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>55</v>
+      <c r="A28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="7">
         <v>310.34</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>1.0</v>
       </c>
       <c r="D28" s="7">
         <v>327.49</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>1.0</v>
       </c>
       <c r="F28" s="7">
         <v>328.77</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>1.0</v>
       </c>
       <c r="H28" s="7">
         <v>331.13</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <v>1.0</v>
       </c>
       <c r="J28" s="8">
         <v>262.5</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <v>1.0</v>
       </c>
       <c r="L28" s="8">
         <v>259.26</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="3">
         <v>1.0</v>
       </c>
       <c r="N28" s="7">
         <v>301.2</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="3">
         <v>1.0</v>
       </c>
       <c r="P28" s="7">
         <v>301.2</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="3">
         <v>1.0</v>
       </c>
       <c r="T28" s="5">
@@ -1706,25 +1768,25 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6">
         <v>370.08</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>0.0</v>
       </c>
       <c r="D29" s="7">
         <v>407.69</v>
       </c>
-      <c r="E29" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="6">
         <v>488.37</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>0.0</v>
       </c>
       <c r="T29" s="7">
@@ -1738,25 +1800,25 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
+      <c r="A30" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="7">
         <v>250.0</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>1.0</v>
       </c>
       <c r="D30" s="7">
         <v>225.0</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>1.0</v>
       </c>
       <c r="F30" s="7">
         <v>243.9</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>1.0</v>
       </c>
       <c r="T30" s="7">
@@ -1770,25 +1832,25 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>58</v>
+      <c r="A31" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B31" s="7">
         <v>275.0</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>1.0</v>
       </c>
       <c r="D31" s="7">
         <v>268.29</v>
       </c>
-      <c r="E31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="3">
         <v>260.87</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>1.0</v>
       </c>
       <c r="T31" s="7">
@@ -1802,25 +1864,25 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>59</v>
+      <c r="A32" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B32" s="7">
         <v>274.51</v>
       </c>
-      <c r="C32" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="6">
         <v>207.55</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>0.0</v>
       </c>
       <c r="F32" s="7">
         <v>306.12</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <v>1.0</v>
       </c>
       <c r="T32" s="7">
@@ -1834,31 +1896,31 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>60</v>
+      <c r="A33" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="7">
         <v>277.78</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>1.0</v>
       </c>
       <c r="D33" s="7">
         <v>273.68</v>
       </c>
-      <c r="E33" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="6">
         <v>236.02</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="3">
         <v>0.0</v>
       </c>
       <c r="H33" s="7">
         <v>243.09</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="3">
         <v>1.0</v>
       </c>
       <c r="T33" s="7">
@@ -1872,31 +1934,31 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="6">
         <v>276.32</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>0.0</v>
       </c>
       <c r="D34" s="7">
         <v>318.47</v>
       </c>
-      <c r="E34" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="E34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="6">
         <v>251.66</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <v>0.0</v>
       </c>
       <c r="H34" s="7">
         <v>324.68</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <v>1.0</v>
       </c>
       <c r="T34" s="7">

--- a/summary_densitydata.xlsx
+++ b/summary_densitydata.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="1460" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="snowpit" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SWEtube" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="DepthDensity" sheetId="3" r:id="rId5"/>
+    <sheet name="snowpit" sheetId="1" r:id="rId1"/>
+    <sheet name="SWEtube" sheetId="2" r:id="rId2"/>
+    <sheet name="DepthDensity" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -199,9 +207,6 @@
   </si>
   <si>
     <t>G13\_Z7C\_SWE</t>
-  </si>
-  <si>
-    <t>G13\_USP\_SWE</t>
   </si>
   <si>
     <t>G13\_Z4C\_SWE</t>
@@ -252,24 +257,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -277,7 +300,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -298,6 +321,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -308,6 +332,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -316,6 +341,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -330,6 +356,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -340,134 +367,445 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -493,7 +831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -501,13 +839,13 @@
         <v>360.9</v>
       </c>
       <c r="C2" s="9">
-        <v>598830.956872462</v>
+        <v>598830.95687246195</v>
       </c>
       <c r="D2" s="9">
-        <v>6755272.76759921</v>
+        <v>6755272.7675992101</v>
       </c>
       <c r="E2" s="5">
-        <v>2175.0</v>
+        <v>2175</v>
       </c>
       <c r="F2" s="7">
         <v>328.6</v>
@@ -516,10 +854,10 @@
         <v>377.3</v>
       </c>
       <c r="H2" s="5">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -527,51 +865,51 @@
         <v>325.8</v>
       </c>
       <c r="C3" s="9">
-        <v>599197.57</v>
+        <v>599197.56999999995</v>
       </c>
       <c r="D3" s="9">
-        <v>6754686.13</v>
+        <v>6754686.1299999999</v>
       </c>
       <c r="E3" s="5">
-        <v>2261.0</v>
+        <v>2261</v>
       </c>
       <c r="F3" s="7">
-        <v>307.9</v>
+        <v>307.89999999999998</v>
       </c>
       <c r="G3" s="7">
         <v>344.7</v>
       </c>
       <c r="H3" s="5">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="7">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="C4" s="9">
-        <v>600044.719257886</v>
+        <v>600044.71925788606</v>
       </c>
       <c r="D4" s="9">
-        <v>6754368.04943599</v>
+        <v>6754368.0494359899</v>
       </c>
       <c r="E4" s="5">
-        <v>2349.0</v>
+        <v>2349</v>
       </c>
       <c r="F4" s="7">
-        <v>327.1</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="G4" s="7">
         <v>361.9</v>
       </c>
       <c r="H4" s="5">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -579,25 +917,25 @@
         <v>300.2</v>
       </c>
       <c r="C5" s="9">
-        <v>601779.320498905</v>
+        <v>601779.32049890503</v>
       </c>
       <c r="D5" s="9">
-        <v>6753115.5549246</v>
+        <v>6753115.5549245998</v>
       </c>
       <c r="E5" s="5">
-        <v>2550.0</v>
+        <v>2550</v>
       </c>
       <c r="F5" s="7">
-        <v>298.6</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="G5" s="7">
-        <v>303.1</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="H5" s="5">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -605,13 +943,13 @@
         <v>350.9</v>
       </c>
       <c r="C6" s="9">
-        <v>596454.888567045</v>
+        <v>596454.88856704498</v>
       </c>
       <c r="D6" s="9">
         <v>6739984.58756568</v>
       </c>
       <c r="E6" s="5">
-        <v>2154.0</v>
+        <v>2154</v>
       </c>
       <c r="F6" s="7">
         <v>343.2</v>
@@ -620,10 +958,10 @@
         <v>359.1</v>
       </c>
       <c r="H6" s="5">
-        <v>190.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -631,25 +969,25 @@
         <v>333.4</v>
       </c>
       <c r="C7" s="9">
-        <v>595510.630882847</v>
+        <v>595510.63088284701</v>
       </c>
       <c r="D7" s="9">
-        <v>6740736.35252594</v>
+        <v>6740736.3525259402</v>
       </c>
       <c r="E7" s="5">
-        <v>2298.0</v>
+        <v>2298</v>
       </c>
       <c r="F7" s="7">
-        <v>316.6</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="G7" s="7">
         <v>349.6</v>
       </c>
       <c r="H7" s="5">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -657,13 +995,13 @@
         <v>359.7</v>
       </c>
       <c r="C8" s="9">
-        <v>595126.583444399</v>
+        <v>595126.58344439894</v>
       </c>
       <c r="D8" s="9">
-        <v>6742232.89922962</v>
+        <v>6742232.8992296197</v>
       </c>
       <c r="E8" s="5">
-        <v>2482.0</v>
+        <v>2482</v>
       </c>
       <c r="F8" s="7">
         <v>356.6</v>
@@ -672,36 +1010,36 @@
         <v>362.4</v>
       </c>
       <c r="H8" s="5">
-        <v>285.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="7">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="C9" s="9">
-        <v>603270.56558006</v>
+        <v>603270.56558006001</v>
       </c>
       <c r="D9" s="9">
-        <v>6764638.61521979</v>
+        <v>6764638.6152197896</v>
       </c>
       <c r="E9" s="5">
-        <v>2139.0</v>
+        <v>2139</v>
       </c>
       <c r="F9" s="7">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="G9" s="7">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="H9" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -712,10 +1050,10 @@
         <v>604509.073083514</v>
       </c>
       <c r="D10" s="9">
-        <v>6763342.34093057</v>
+        <v>6763342.3409305699</v>
       </c>
       <c r="E10" s="5">
-        <v>2257.0</v>
+        <v>2257</v>
       </c>
       <c r="F10" s="7">
         <v>345.6</v>
@@ -724,10 +1062,10 @@
         <v>366.9</v>
       </c>
       <c r="H10" s="5">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -735,72 +1073,78 @@
         <v>307.8</v>
       </c>
       <c r="C11" s="9">
-        <v>606342.040716066</v>
+        <v>606342.04071606603</v>
       </c>
       <c r="D11" s="9">
-        <v>6761736.67808849</v>
+        <v>6761736.6780884899</v>
       </c>
       <c r="E11" s="5">
-        <v>2516.0</v>
+        <v>2516</v>
       </c>
       <c r="F11" s="7">
-        <v>306.4</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="G11" s="7">
         <v>308.2</v>
       </c>
       <c r="H11" s="5">
-        <v>145.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1">
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
       <c r="B18" s="15"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:5" ht="15.75" customHeight="1">
       <c r="B19" s="15"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:5" ht="15.75" customHeight="1">
       <c r="B20" s="15"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="2" width="6.29"/>
-    <col customWidth="1" min="3" max="3" width="3.43"/>
-    <col customWidth="1" min="4" max="4" width="6.29"/>
-    <col customWidth="1" min="5" max="5" width="3.43"/>
-    <col customWidth="1" min="6" max="6" width="6.29"/>
-    <col customWidth="1" min="7" max="7" width="3.43"/>
-    <col customWidth="1" min="8" max="8" width="6.29"/>
-    <col customWidth="1" min="9" max="9" width="3.43"/>
-    <col customWidth="1" min="10" max="10" width="6.29"/>
-    <col customWidth="1" min="11" max="11" width="3.43"/>
-    <col customWidth="1" min="12" max="12" width="6.29"/>
-    <col customWidth="1" min="13" max="13" width="3.43"/>
-    <col customWidth="1" min="14" max="14" width="6.29"/>
-    <col customWidth="1" min="15" max="15" width="3.43"/>
-    <col customWidth="1" min="16" max="16" width="6.29"/>
-    <col customWidth="1" min="17" max="17" width="3.43"/>
-    <col customWidth="1" min="18" max="18" width="6.29"/>
-    <col customWidth="1" min="19" max="19" width="3.43"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" customWidth="1"/>
+    <col min="19" max="19" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +1215,7 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="14"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>46</v>
       </c>
@@ -879,47 +1223,47 @@
         <v>321.05</v>
       </c>
       <c r="C2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="18">
         <v>321.24</v>
       </c>
       <c r="E2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="19">
         <v>361.26</v>
       </c>
       <c r="G2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="19">
         <v>378.95</v>
       </c>
       <c r="I2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="19">
         <v>370.56</v>
       </c>
       <c r="K2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19">
-        <v>595047.0</v>
+        <v>595047</v>
       </c>
       <c r="U2" s="19">
-        <v>6740409.0</v>
+        <v>6740409</v>
       </c>
       <c r="V2" s="19">
-        <v>2229.0</v>
+        <v>2229</v>
       </c>
       <c r="Y2" s="11"/>
       <c r="Z2" s="20"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -927,69 +1271,69 @@
         <v>322.98</v>
       </c>
       <c r="C3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
         <v>265.82</v>
       </c>
       <c r="E3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="19">
         <v>355.03</v>
       </c>
       <c r="G3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="19">
         <v>363.64</v>
       </c>
       <c r="I3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="19">
         <v>364.16</v>
       </c>
       <c r="K3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="19">
-        <v>327.59</v>
+        <v>327.58999999999997</v>
       </c>
       <c r="M3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="19">
         <v>337.35</v>
       </c>
       <c r="O3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="18">
-        <v>303.03</v>
+        <v>303.02999999999997</v>
       </c>
       <c r="Q3" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R3" s="19">
         <v>363.1</v>
       </c>
       <c r="S3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="9">
-        <v>595510.630882847</v>
+        <v>595510.63088284701</v>
       </c>
       <c r="U3" s="9">
-        <v>6740736.35252594</v>
+        <v>6740736.3525259402</v>
       </c>
       <c r="V3" s="5">
-        <v>2298.0</v>
+        <v>2298</v>
       </c>
       <c r="Y3" s="11"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>41</v>
       </c>
@@ -997,36 +1341,36 @@
         <v>352.94</v>
       </c>
       <c r="C4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="19">
         <v>374.33</v>
       </c>
       <c r="E4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="19">
         <v>377.14</v>
       </c>
       <c r="G4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
       <c r="T4" s="19">
-        <v>596385.0</v>
+        <v>596385</v>
       </c>
       <c r="U4" s="19">
-        <v>6739965.0</v>
+        <v>6739965</v>
       </c>
       <c r="V4" s="5">
-        <v>2162.0</v>
+        <v>2162</v>
       </c>
       <c r="Y4" s="11"/>
       <c r="Z4" s="20"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
@@ -1034,161 +1378,161 @@
         <v>374.3</v>
       </c>
       <c r="C5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>344.44</v>
       </c>
       <c r="E5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="18">
         <v>324.02</v>
       </c>
       <c r="G5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="19">
         <v>372.34</v>
       </c>
       <c r="I5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="19">
         <v>376.34</v>
       </c>
       <c r="K5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="19">
         <v>372.97</v>
       </c>
       <c r="M5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="19">
         <v>362.16</v>
       </c>
       <c r="O5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="19">
         <v>375.66</v>
       </c>
       <c r="Q5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="19">
         <v>372.97</v>
       </c>
       <c r="S5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="9">
-        <v>596454.888567045</v>
+        <v>596454.88856704498</v>
       </c>
       <c r="U5" s="9">
         <v>6739984.58756568</v>
       </c>
       <c r="V5" s="5">
-        <v>2154.0</v>
+        <v>2154</v>
       </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="20"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="18">
         <v>407.89</v>
       </c>
       <c r="C6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="19">
         <v>362.57</v>
       </c>
       <c r="E6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="19">
         <v>356.32</v>
       </c>
       <c r="G6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19">
-        <v>595213.0</v>
+        <v>595213</v>
       </c>
       <c r="U6" s="19">
-        <v>6741154.0</v>
+        <v>6741154</v>
       </c>
       <c r="V6" s="5">
-        <v>2360.0</v>
+        <v>2360</v>
       </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="20"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="19">
         <v>329.9</v>
       </c>
       <c r="C7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="19">
         <v>331.63</v>
       </c>
       <c r="E7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19">
         <v>321.24</v>
       </c>
       <c r="G7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19">
-        <v>595127.0</v>
+        <v>595127</v>
       </c>
       <c r="U7" s="19">
-        <v>6740736.0</v>
+        <v>6740736</v>
       </c>
       <c r="V7" s="5">
-        <v>2328.0</v>
+        <v>2328</v>
       </c>
       <c r="Y7" s="11"/>
       <c r="Z7" s="20"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="24">
         <v>335.94</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="24">
         <v>328.13</v>
       </c>
       <c r="E8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="25">
         <v>169.23</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -1203,52 +1547,52 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24">
-        <v>595508.0</v>
+        <v>595508</v>
       </c>
       <c r="U8" s="24">
-        <v>6741167.0</v>
+        <v>6741167</v>
       </c>
       <c r="V8" s="2">
-        <v>2332.0</v>
+        <v>2332</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="20"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="19">
         <v>283.19</v>
       </c>
       <c r="C9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="19">
         <v>263.64</v>
       </c>
       <c r="E9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="18">
         <v>241.38</v>
       </c>
       <c r="G9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>599921.0</v>
+        <v>599921</v>
       </c>
       <c r="U9" s="19">
-        <v>6754533.0</v>
+        <v>6754533</v>
       </c>
       <c r="V9" s="5">
-        <v>2332.0</v>
+        <v>2332</v>
       </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="20"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1256,69 +1600,69 @@
         <v>160.38</v>
       </c>
       <c r="C10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="19">
         <v>269.23</v>
       </c>
       <c r="E10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="19">
-        <v>271.84</v>
+        <v>271.83999999999997</v>
       </c>
       <c r="G10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="19">
         <v>268.52</v>
       </c>
       <c r="I10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="19">
         <v>266.67</v>
       </c>
       <c r="K10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="19">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="M10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="19">
-        <v>299.15</v>
+        <v>299.14999999999998</v>
       </c>
       <c r="O10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="18">
         <v>290.32</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R10" s="19">
         <v>307.69</v>
       </c>
       <c r="S10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="9">
-        <v>600044.719257886</v>
+        <v>600044.71925788606</v>
       </c>
       <c r="U10" s="9">
-        <v>6754368.04943599</v>
+        <v>6754368.0494359899</v>
       </c>
       <c r="V10" s="5">
-        <v>2349.0</v>
+        <v>2349</v>
       </c>
       <c r="Y10" s="11"/>
       <c r="Z10" s="20"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
@@ -1326,207 +1670,207 @@
         <v>326.02</v>
       </c>
       <c r="C11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="19">
         <v>369.39</v>
       </c>
       <c r="E11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="19">
         <v>329.27</v>
       </c>
       <c r="G11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="19">
-        <v>600713.0</v>
+        <v>600713</v>
       </c>
       <c r="U11" s="19">
-        <v>6754216.0</v>
+        <v>6754216</v>
       </c>
       <c r="V11" s="5">
-        <v>2403.0</v>
+        <v>2403</v>
       </c>
       <c r="Y11" s="11"/>
       <c r="Z11" s="20"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="19">
         <v>302.63</v>
       </c>
       <c r="C12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="22">
         <v>291.39</v>
       </c>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
-        <v>309.21</v>
+        <v>309.20999999999998</v>
       </c>
       <c r="G12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="19">
-        <v>601198.0</v>
+        <v>601198</v>
       </c>
       <c r="U12" s="19">
-        <v>6754169.0</v>
+        <v>6754169</v>
       </c>
       <c r="V12" s="5">
-        <v>2458.0</v>
+        <v>2458</v>
       </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="20"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="19">
-        <v>299.21</v>
+        <v>299.20999999999998</v>
       </c>
       <c r="C13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="19">
         <v>295.45</v>
       </c>
       <c r="E13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="19">
         <v>306.45</v>
       </c>
       <c r="G13" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="19">
-        <v>600852.0</v>
+        <v>600852</v>
       </c>
       <c r="U13" s="19">
-        <v>6753799.0</v>
+        <v>6753799</v>
       </c>
       <c r="V13" s="5">
-        <v>2442.0</v>
+        <v>2442</v>
       </c>
       <c r="Y13" s="11"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="12">
-        <v>246.3337709447</v>
+        <v>246.33377094470001</v>
       </c>
       <c r="C14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="12">
-        <v>251.3609907599</v>
+        <v>251.36099075990001</v>
       </c>
       <c r="E14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="12">
         <v>232.2338581297</v>
       </c>
       <c r="G14" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="12">
-        <v>598954.0</v>
+        <v>598954</v>
       </c>
       <c r="U14" s="12">
-        <v>6755390.0</v>
+        <v>6755390</v>
       </c>
       <c r="V14" s="5">
-        <v>2172.0</v>
+        <v>2172</v>
       </c>
       <c r="Y14" s="11"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="27">
-        <v>263.46</v>
+        <v>263.45999999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="27">
         <v>261.26</v>
       </c>
       <c r="E15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="28">
         <v>231.66</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="27">
         <v>261.26</v>
       </c>
       <c r="I15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="27">
         <v>234.19</v>
       </c>
       <c r="K15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="27">
         <v>233.68</v>
       </c>
       <c r="M15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="27">
         <v>257.12</v>
       </c>
       <c r="O15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="27">
         <v>245.79</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="T15" s="29">
-        <v>598830.956870471</v>
+        <v>598830.95687047101</v>
       </c>
       <c r="U15" s="29">
-        <v>6755272.76759809</v>
+        <v>6755272.7675980898</v>
       </c>
       <c r="V15" s="2">
-        <v>2175.0</v>
+        <v>2175</v>
       </c>
       <c r="Y15" s="11"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1534,99 +1878,99 @@
         <v>346.67</v>
       </c>
       <c r="C16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="19">
         <v>344.83</v>
       </c>
       <c r="E16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="19">
         <v>351.35</v>
       </c>
       <c r="G16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="19">
         <v>342.28</v>
       </c>
       <c r="I16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="19">
         <v>350.36</v>
       </c>
       <c r="K16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="19">
         <v>350.36</v>
       </c>
       <c r="M16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="19">
         <v>360.54</v>
       </c>
       <c r="O16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="19">
         <v>344.83</v>
       </c>
       <c r="Q16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="9">
-        <v>595126.583444399</v>
+        <v>595126.58344439894</v>
       </c>
       <c r="U16" s="9">
-        <v>6742232.89922962</v>
+        <v>6742232.8992296197</v>
       </c>
       <c r="V16" s="19">
-        <v>2517.0</v>
+        <v>2517</v>
       </c>
       <c r="Y16" s="11"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="18">
         <v>294.57</v>
       </c>
       <c r="C17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
         <v>286.82</v>
       </c>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="18">
         <v>322.83</v>
       </c>
       <c r="G17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="5"/>
       <c r="T17" s="9">
-        <v>606370.157387766</v>
+        <v>606370.15738776606</v>
       </c>
       <c r="U17" s="9">
-        <v>6761967.14383023</v>
+        <v>6761967.1438302305</v>
       </c>
       <c r="Y17" s="11"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -1634,35 +1978,35 @@
         <v>344.83</v>
       </c>
       <c r="C18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="19">
         <v>366.67</v>
       </c>
       <c r="E18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="19">
         <v>343.64</v>
       </c>
       <c r="G18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="19">
-        <v>606318.0</v>
+        <v>606318</v>
       </c>
       <c r="U18" s="19">
-        <v>6761532.0</v>
+        <v>6761532</v>
       </c>
       <c r="V18" s="19">
-        <v>2524.0</v>
+        <v>2524</v>
       </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>54</v>
       </c>
@@ -1670,75 +2014,75 @@
         <v>324.32</v>
       </c>
       <c r="C19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="19">
         <v>330.43</v>
       </c>
       <c r="E19" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="19">
         <v>355.56</v>
       </c>
       <c r="G19" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="22">
-        <v>326.09</v>
+        <v>326.08999999999997</v>
       </c>
       <c r="I19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>606299.0</v>
+        <v>606299</v>
       </c>
       <c r="U19" s="19">
-        <v>6741270.0</v>
+        <v>6741270</v>
       </c>
       <c r="V19" s="19">
-        <v>2535.0</v>
+        <v>2535</v>
       </c>
       <c r="Y19" s="11"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="18">
-        <v>307.09</v>
+        <v>307.08999999999997</v>
       </c>
       <c r="C20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="18">
         <v>339.92</v>
       </c>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="18">
         <v>338.35</v>
       </c>
       <c r="G20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T20" s="19">
-        <v>606275.0</v>
+        <v>606275</v>
       </c>
       <c r="U20" s="19">
-        <v>6760989.0</v>
+        <v>6760989</v>
       </c>
       <c r="V20" s="19">
-        <v>2546.0</v>
+        <v>2546</v>
       </c>
       <c r="Y20" s="11"/>
       <c r="Z20" s="20"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
@@ -1746,33 +2090,33 @@
         <v>386.55</v>
       </c>
       <c r="C21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="19">
-        <v>323.53</v>
+        <v>323.52999999999997</v>
       </c>
       <c r="E21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="19">
         <v>294.12</v>
       </c>
       <c r="G21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="19">
-        <v>606253.0</v>
+        <v>606253</v>
       </c>
       <c r="U21" s="19">
-        <v>6760715.0</v>
+        <v>6760715</v>
       </c>
       <c r="V21" s="19">
-        <v>2573.0</v>
+        <v>2573</v>
       </c>
       <c r="Y21" s="11"/>
       <c r="Z21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -1780,35 +2124,35 @@
         <v>340.43</v>
       </c>
       <c r="C22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="18">
         <v>363.64</v>
       </c>
       <c r="E22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="18">
         <v>217.39</v>
       </c>
       <c r="G22" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T22" s="19">
-        <v>606397.0</v>
+        <v>606397</v>
       </c>
       <c r="U22" s="19">
-        <v>6761622.0</v>
+        <v>6761622</v>
       </c>
       <c r="V22" s="19">
-        <v>2532.0</v>
+        <v>2532</v>
       </c>
       <c r="Y22" s="11"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -1816,35 +2160,35 @@
         <v>313.25</v>
       </c>
       <c r="C23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="19">
         <v>333.33</v>
       </c>
       <c r="E23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="19">
         <v>362.75</v>
       </c>
       <c r="G23" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="19">
-        <v>606142.0</v>
+        <v>606142</v>
       </c>
       <c r="U23" s="19">
-        <v>6761205.0</v>
+        <v>6761205</v>
       </c>
       <c r="V23" s="19">
-        <v>2526.0</v>
+        <v>2526</v>
       </c>
       <c r="Y23" s="11"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
@@ -1852,69 +2196,69 @@
         <v>328.77</v>
       </c>
       <c r="C24" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="19">
-        <v>263.16</v>
+        <v>263.16000000000003</v>
       </c>
       <c r="E24" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="19">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="G24" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="19">
-        <v>606083.0</v>
+        <v>606083</v>
       </c>
       <c r="U24" s="19">
-        <v>6762163.0</v>
+        <v>6762163</v>
       </c>
       <c r="V24" s="19">
-        <v>2483.0</v>
+        <v>2483</v>
       </c>
       <c r="Y24" s="11"/>
       <c r="Z24" s="20"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="19">
-        <v>303.28</v>
+        <v>303.27999999999997</v>
       </c>
       <c r="C25" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="18">
         <v>204.38</v>
       </c>
       <c r="E25" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="19">
         <v>335.71</v>
       </c>
       <c r="G25" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="19">
-        <v>605969.0</v>
+        <v>605969</v>
       </c>
       <c r="U25" s="19">
-        <v>6762550.0</v>
+        <v>6762550</v>
       </c>
       <c r="V25" s="19">
-        <v>2419.0</v>
+        <v>2419</v>
       </c>
       <c r="Y25" s="11"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -1922,33 +2266,33 @@
         <v>303.92</v>
       </c>
       <c r="C26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="19">
         <v>331.75</v>
       </c>
       <c r="E26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="19">
         <v>307.69</v>
       </c>
       <c r="G26" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="19">
-        <v>605121.0</v>
+        <v>605121</v>
       </c>
       <c r="U26" s="19">
-        <v>6762899.0</v>
+        <v>6762899</v>
       </c>
       <c r="V26" s="19">
-        <v>2321.0</v>
+        <v>2321</v>
       </c>
       <c r="Y26" s="11"/>
       <c r="Z26" s="20"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>61</v>
       </c>
@@ -1956,759 +2300,767 @@
         <v>247.19</v>
       </c>
       <c r="C27" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D27" s="19">
         <v>277.11</v>
       </c>
       <c r="E27" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="19">
-        <v>271.6</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="G27" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="19">
-        <v>604708.0</v>
+        <v>604708</v>
       </c>
       <c r="U27" s="19">
-        <v>6762812.0</v>
+        <v>6762812</v>
       </c>
       <c r="V27" s="30">
-        <v>2296.0</v>
+        <v>2296</v>
       </c>
       <c r="Y27" s="11"/>
       <c r="Z27" s="20"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="19">
-        <v>310.34</v>
+        <v>310.33999999999997</v>
       </c>
       <c r="C28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="19">
         <v>327.49</v>
       </c>
       <c r="E28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="19">
         <v>328.77</v>
       </c>
       <c r="G28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="19">
         <v>331.13</v>
       </c>
       <c r="I28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="22">
         <v>262.5</v>
       </c>
       <c r="K28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="22">
         <v>259.26</v>
       </c>
       <c r="M28" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="19">
         <v>301.2</v>
       </c>
       <c r="O28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="19">
         <v>301.2</v>
       </c>
       <c r="Q28" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="9">
         <v>604509.073083514</v>
       </c>
       <c r="U28" s="9">
-        <v>6763342.34093057</v>
+        <v>6763342.3409305699</v>
       </c>
       <c r="V28" s="19">
-        <v>2257.0</v>
+        <v>2257</v>
       </c>
       <c r="Y28" s="11"/>
       <c r="Z28" s="20"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="18">
         <v>370.08</v>
       </c>
       <c r="C29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="19">
         <v>407.69</v>
       </c>
       <c r="E29" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="18">
         <v>488.37</v>
       </c>
       <c r="G29" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T29" s="19">
-        <v>603904.0</v>
+        <v>603904</v>
       </c>
       <c r="U29" s="19">
-        <v>6764001.0</v>
+        <v>6764001</v>
       </c>
       <c r="V29" s="30">
-        <v>2206.0</v>
+        <v>2206</v>
       </c>
       <c r="Y29" s="11"/>
       <c r="Z29" s="20"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="19">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="C30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="19">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="E30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="19">
         <v>243.9</v>
       </c>
       <c r="G30" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="19">
-        <v>603925.0</v>
+        <v>603925</v>
       </c>
       <c r="U30" s="19">
-        <v>6764029.0</v>
+        <v>6764029</v>
       </c>
       <c r="V30" s="19">
-        <v>2206.0</v>
+        <v>2206</v>
       </c>
       <c r="Y30" s="11"/>
       <c r="Z30" s="20"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="19">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="C31" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="19">
-        <v>268.29</v>
+        <v>268.29000000000002</v>
       </c>
       <c r="E31" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="5">
         <v>260.87</v>
       </c>
       <c r="G31" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="19">
-        <v>603569.0</v>
+        <v>603569</v>
       </c>
       <c r="U31" s="19">
-        <v>6764536.0</v>
+        <v>6764536</v>
       </c>
       <c r="V31" s="30">
-        <v>2156.0</v>
+        <v>2156</v>
       </c>
       <c r="Y31" s="11"/>
       <c r="Z31" s="20"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="19">
         <v>274.51</v>
       </c>
       <c r="C32" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="18">
         <v>207.55</v>
       </c>
       <c r="E32" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="19">
         <v>306.12</v>
       </c>
       <c r="G32" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="19">
-        <v>603927.0</v>
+        <v>603927</v>
       </c>
       <c r="U32" s="19">
-        <v>6764001.0</v>
+        <v>6764001</v>
       </c>
       <c r="V32" s="30">
-        <v>2214.0</v>
+        <v>2214</v>
       </c>
       <c r="Y32" s="11"/>
       <c r="Z32" s="20"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="19">
-        <v>277.78</v>
+        <v>277.77999999999997</v>
       </c>
       <c r="C33" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="19">
         <v>273.68</v>
       </c>
       <c r="E33" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="18">
         <v>236.02</v>
       </c>
       <c r="G33" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H33" s="19">
         <v>243.09</v>
       </c>
       <c r="I33" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="19">
-        <v>604583.0</v>
+        <v>604583</v>
       </c>
       <c r="U33" s="19">
-        <v>6763779.0</v>
+        <v>6763779</v>
       </c>
       <c r="V33" s="30">
-        <v>2246.0</v>
+        <v>2246</v>
       </c>
       <c r="Y33" s="11"/>
       <c r="Z33" s="20"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="18">
         <v>276.32</v>
       </c>
       <c r="C34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="19">
-        <v>318.47</v>
+        <v>318.47000000000003</v>
       </c>
       <c r="E34" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="18">
         <v>251.66</v>
       </c>
       <c r="G34" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="19">
         <v>324.68</v>
       </c>
       <c r="I34" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="19">
-        <v>603843.0</v>
+        <v>603843</v>
       </c>
       <c r="U34" s="19">
-        <v>6763492.0</v>
+        <v>6763492</v>
       </c>
       <c r="V34" s="30">
-        <v>2216.0</v>
+        <v>2216</v>
       </c>
       <c r="Y34" s="11"/>
       <c r="Z34" s="20"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y35" s="11"/>
       <c r="Z35" s="20"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="T36" s="31"/>
       <c r="U36" s="31"/>
       <c r="V36" s="31"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="20"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
       <c r="V37" s="31"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="20"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y38" s="11"/>
       <c r="Z38" s="20"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
       <c r="V39" s="31"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="20"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="T40" s="31"/>
       <c r="U40" s="31"/>
       <c r="V40" s="31"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="20"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y41" s="11"/>
       <c r="Z41" s="20"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="T42" s="31"/>
       <c r="U42" s="31"/>
       <c r="V42" s="31"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="20"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="T43" s="31"/>
       <c r="U43" s="31"/>
       <c r="V43" s="31"/>
       <c r="Y43" s="11"/>
       <c r="Z43" s="20"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y44" s="11"/>
       <c r="Z44" s="20"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y45" s="11"/>
       <c r="Z45" s="20"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y46" s="11"/>
       <c r="Z46" s="20"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y47" s="11"/>
       <c r="Z47" s="20"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="Y48" s="11"/>
       <c r="Z48" s="20"/>
     </row>
-    <row r="49">
+    <row r="49" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y49" s="11"/>
       <c r="Z49" s="20"/>
     </row>
-    <row r="50">
+    <row r="50" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y50" s="11"/>
       <c r="Z50" s="20"/>
     </row>
-    <row r="51">
+    <row r="51" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y51" s="11"/>
       <c r="Z51" s="20"/>
     </row>
-    <row r="52">
+    <row r="52" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y52" s="11"/>
       <c r="Z52" s="20"/>
     </row>
-    <row r="53">
+    <row r="53" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y53" s="11"/>
       <c r="Z53" s="20"/>
     </row>
-    <row r="54">
+    <row r="54" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y54" s="11"/>
       <c r="Z54" s="20"/>
     </row>
-    <row r="55">
+    <row r="55" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y55" s="11"/>
       <c r="Z55" s="20"/>
     </row>
-    <row r="56">
+    <row r="56" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y56" s="11"/>
       <c r="Z56" s="20"/>
     </row>
-    <row r="57">
+    <row r="57" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y57" s="11"/>
       <c r="Z57" s="20"/>
     </row>
-    <row r="58">
+    <row r="58" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y58" s="11"/>
       <c r="Z58" s="20"/>
     </row>
-    <row r="59">
+    <row r="59" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y59" s="11"/>
       <c r="Z59" s="20"/>
     </row>
-    <row r="60">
+    <row r="60" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y60" s="11"/>
       <c r="Z60" s="20"/>
     </row>
-    <row r="61">
+    <row r="61" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y61" s="11"/>
       <c r="Z61" s="20"/>
     </row>
-    <row r="62">
+    <row r="62" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y62" s="11"/>
       <c r="Z62" s="20"/>
     </row>
-    <row r="63">
+    <row r="63" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y63" s="11"/>
       <c r="Z63" s="20"/>
     </row>
-    <row r="64">
+    <row r="64" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y64" s="11"/>
       <c r="Z64" s="20"/>
     </row>
-    <row r="65">
+    <row r="65" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y65" s="11"/>
       <c r="Z65" s="20"/>
     </row>
-    <row r="66">
+    <row r="66" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y66" s="11"/>
       <c r="Z66" s="20"/>
     </row>
-    <row r="67">
+    <row r="67" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y67" s="11"/>
       <c r="Z67" s="20"/>
     </row>
-    <row r="68">
+    <row r="68" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y68" s="11"/>
       <c r="Z68" s="20"/>
     </row>
-    <row r="69">
+    <row r="69" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y69" s="11"/>
       <c r="Z69" s="20"/>
     </row>
-    <row r="70">
+    <row r="70" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y70" s="11"/>
       <c r="Z70" s="20"/>
     </row>
-    <row r="71">
+    <row r="71" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y71" s="11"/>
       <c r="Z71" s="20"/>
     </row>
-    <row r="72">
+    <row r="72" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y72" s="11"/>
       <c r="Z72" s="20"/>
     </row>
-    <row r="73">
+    <row r="73" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y73" s="11"/>
       <c r="Z73" s="20"/>
     </row>
-    <row r="74">
+    <row r="74" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y74" s="11"/>
       <c r="Z74" s="20"/>
     </row>
-    <row r="75">
+    <row r="75" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y75" s="11"/>
       <c r="Z75" s="20"/>
     </row>
-    <row r="76">
+    <row r="76" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y76" s="11"/>
       <c r="Z76" s="20"/>
     </row>
-    <row r="77">
+    <row r="77" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y77" s="11"/>
       <c r="Z77" s="20"/>
     </row>
-    <row r="78">
+    <row r="78" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y78" s="11"/>
       <c r="Z78" s="20"/>
     </row>
-    <row r="79">
+    <row r="79" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y79" s="11"/>
       <c r="Z79" s="20"/>
     </row>
-    <row r="80">
+    <row r="80" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y80" s="12"/>
       <c r="Z80" s="20"/>
     </row>
-    <row r="81">
+    <row r="81" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y81" s="12"/>
       <c r="Z81" s="20"/>
     </row>
-    <row r="82">
+    <row r="82" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y82" s="12"/>
       <c r="Z82" s="20"/>
     </row>
-    <row r="83">
+    <row r="83" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y83" s="12"/>
       <c r="Z83" s="20"/>
     </row>
-    <row r="84">
+    <row r="84" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y84" s="12"/>
       <c r="Z84" s="20"/>
     </row>
-    <row r="85">
+    <row r="85" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y85" s="12"/>
       <c r="Z85" s="20"/>
     </row>
-    <row r="86">
+    <row r="86" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y86" s="12"/>
       <c r="Z86" s="20"/>
     </row>
-    <row r="87">
+    <row r="87" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y87" s="12"/>
       <c r="Z87" s="20"/>
     </row>
-    <row r="88">
+    <row r="88" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y88" s="12"/>
       <c r="Z88" s="20"/>
     </row>
-    <row r="89">
+    <row r="89" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y89" s="12"/>
       <c r="Z89" s="20"/>
     </row>
-    <row r="90">
+    <row r="90" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y90" s="12"/>
       <c r="Z90" s="20"/>
     </row>
-    <row r="91">
+    <row r="91" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y91" s="12"/>
       <c r="Z91" s="20"/>
     </row>
-    <row r="92">
+    <row r="92" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y92" s="12"/>
       <c r="Z92" s="20"/>
     </row>
-    <row r="93">
+    <row r="93" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y93" s="12"/>
       <c r="Z93" s="20"/>
     </row>
-    <row r="94">
+    <row r="94" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y94" s="12"/>
       <c r="Z94" s="20"/>
     </row>
-    <row r="95">
+    <row r="95" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y95" s="12"/>
       <c r="Z95" s="20"/>
     </row>
-    <row r="96">
+    <row r="96" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y96" s="12"/>
       <c r="Z96" s="20"/>
     </row>
-    <row r="97">
+    <row r="97" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y97" s="12"/>
       <c r="Z97" s="20"/>
     </row>
-    <row r="98">
+    <row r="98" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y98" s="12"/>
       <c r="Z98" s="20"/>
     </row>
-    <row r="99">
+    <row r="99" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y99" s="12"/>
       <c r="Z99" s="20"/>
     </row>
-    <row r="100">
+    <row r="100" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y100" s="12"/>
       <c r="Z100" s="20"/>
     </row>
-    <row r="101">
+    <row r="101" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y101" s="12"/>
       <c r="Z101" s="20"/>
     </row>
-    <row r="102">
+    <row r="102" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y102" s="12"/>
       <c r="Z102" s="20"/>
     </row>
-    <row r="103">
+    <row r="103" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y103" s="12"/>
       <c r="Z103" s="20"/>
     </row>
-    <row r="104">
+    <row r="104" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y104" s="12"/>
       <c r="Z104" s="20"/>
     </row>
-    <row r="105">
+    <row r="105" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y105" s="12"/>
       <c r="Z105" s="20"/>
     </row>
-    <row r="106">
+    <row r="106" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y106" s="12"/>
       <c r="Z106" s="20"/>
     </row>
-    <row r="107">
+    <row r="107" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y107" s="12"/>
       <c r="Z107" s="20"/>
     </row>
-    <row r="108">
+    <row r="108" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y108" s="11"/>
       <c r="Z108" s="20"/>
     </row>
-    <row r="109">
+    <row r="109" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y109" s="11"/>
       <c r="Z109" s="20"/>
     </row>
-    <row r="110">
+    <row r="110" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y110" s="11"/>
       <c r="Z110" s="20"/>
     </row>
-    <row r="111">
+    <row r="111" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y111" s="11"/>
       <c r="Z111" s="20"/>
     </row>
-    <row r="112">
+    <row r="112" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y112" s="11"/>
       <c r="Z112" s="20"/>
     </row>
-    <row r="113">
+    <row r="113" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y113" s="11"/>
       <c r="Z113" s="20"/>
     </row>
-    <row r="114">
+    <row r="114" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y114" s="11"/>
       <c r="Z114" s="20"/>
     </row>
-    <row r="115">
+    <row r="115" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y115" s="11"/>
       <c r="Z115" s="20"/>
     </row>
-    <row r="116">
+    <row r="116" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y116" s="11"/>
       <c r="Z116" s="20"/>
     </row>
-    <row r="117">
+    <row r="117" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y117" s="11"/>
       <c r="Z117" s="20"/>
     </row>
-    <row r="118">
+    <row r="118" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y118" s="11"/>
       <c r="Z118" s="20"/>
     </row>
-    <row r="119">
+    <row r="119" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y119" s="11"/>
       <c r="Z119" s="20"/>
     </row>
-    <row r="120">
+    <row r="120" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y120" s="11"/>
       <c r="Z120" s="20"/>
     </row>
-    <row r="121">
+    <row r="121" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y121" s="11"/>
       <c r="Z121" s="20"/>
     </row>
-    <row r="122">
+    <row r="122" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y122" s="11"/>
       <c r="Z122" s="20"/>
     </row>
-    <row r="123">
+    <row r="123" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y123" s="11"/>
       <c r="Z123" s="20"/>
     </row>
-    <row r="124">
+    <row r="124" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y124" s="11"/>
       <c r="Z124" s="20"/>
     </row>
-    <row r="125">
+    <row r="125" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y125" s="11"/>
       <c r="Z125" s="20"/>
     </row>
-    <row r="126">
+    <row r="126" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y126" s="11"/>
       <c r="Z126" s="20"/>
     </row>
-    <row r="127">
+    <row r="127" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y127" s="11"/>
       <c r="Z127" s="20"/>
     </row>
-    <row r="128">
+    <row r="128" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y128" s="11"/>
       <c r="Z128" s="20"/>
     </row>
-    <row r="129">
+    <row r="129" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y129" s="11"/>
       <c r="Z129" s="20"/>
     </row>
-    <row r="130">
+    <row r="130" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y130" s="11"/>
       <c r="Z130" s="20"/>
     </row>
-    <row r="131">
+    <row r="131" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y131" s="11"/>
       <c r="Z131" s="20"/>
     </row>
-    <row r="132">
+    <row r="132" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y132" s="11"/>
       <c r="Z132" s="20"/>
     </row>
-    <row r="133">
+    <row r="133" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y133" s="11"/>
       <c r="Z133" s="20"/>
     </row>
-    <row r="134">
+    <row r="134" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y134" s="11"/>
       <c r="Z134" s="20"/>
     </row>
-    <row r="135">
+    <row r="135" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y135" s="11"/>
       <c r="Z135" s="20"/>
     </row>
-    <row r="136">
+    <row r="136" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y136" s="11"/>
       <c r="Z136" s="20"/>
     </row>
-    <row r="137">
+    <row r="137" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y137" s="11"/>
       <c r="Z137" s="20"/>
     </row>
-    <row r="138">
+    <row r="138" spans="25:26" ht="15.75" customHeight="1">
       <c r="Y138" s="11"/>
       <c r="Z138" s="20"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2721,130 +3073,130 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="10">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="C2" s="12">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="D2" s="12">
         <v>361.26</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="10">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="C3" s="12">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="D3" s="12">
         <v>378.95</v>
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="10">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="C4" s="12">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="D4" s="12">
         <v>370.56</v>
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="12">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="D5" s="12">
         <v>355.03</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="12">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="D6" s="12">
         <v>363.64</v>
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="12">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="D7" s="12">
         <v>364.16</v>
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="14">
       <c r="A8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="12">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="D8" s="12">
-        <v>327.59</v>
+        <v>327.58999999999997</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="14">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="12">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="D9" s="12">
         <v>337.35</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="14">
       <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="12">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="D10" s="12">
         <v>363.1</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="14">
       <c r="A11" s="11" t="s">
         <v>41</v>
       </c>
@@ -2852,29 +3204,29 @@
         <v>170.5</v>
       </c>
       <c r="C11" s="12">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="D11" s="12">
         <v>352.94</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="14">
       <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="10">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="C12" s="12">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="D12" s="12">
         <v>374.33</v>
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="11" t="s">
         <v>41</v>
       </c>
@@ -2882,59 +3234,59 @@
         <v>176.33333333333334</v>
       </c>
       <c r="C13" s="12">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="D13" s="12">
         <v>377.14</v>
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="14">
       <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="10">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="C14" s="12">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="D14" s="12">
         <v>374.3</v>
       </c>
       <c r="E14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="14">
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="10">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="C15" s="12">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12">
         <v>372.34</v>
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="14">
       <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="10">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="C16" s="12">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="D16" s="12">
         <v>376.34</v>
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
@@ -2942,14 +3294,14 @@
         <v>186.83333333333334</v>
       </c>
       <c r="C17" s="12">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="D17" s="12">
         <v>372.97</v>
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
@@ -2957,14 +3309,14 @@
         <v>186.83333333333334</v>
       </c>
       <c r="C18" s="12">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="D18" s="12">
         <v>362.16</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="14">
       <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
@@ -2972,14 +3324,14 @@
         <v>194.83333333333334</v>
       </c>
       <c r="C19" s="12">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="D19" s="12">
         <v>375.66</v>
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="14">
       <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
@@ -2987,14 +3339,14 @@
         <v>194.83333333333334</v>
       </c>
       <c r="C20" s="12">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="D20" s="12">
         <v>372.97</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="14">
       <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
@@ -3002,14 +3354,14 @@
         <v>172.33333333333334</v>
       </c>
       <c r="C21" s="12">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="D21" s="12">
         <v>362.57</v>
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="14">
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
@@ -3017,14 +3369,14 @@
         <v>172.33333333333334</v>
       </c>
       <c r="C22" s="12">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="D22" s="12">
         <v>356.32</v>
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="14">
       <c r="A23" s="11" t="s">
         <v>43</v>
       </c>
@@ -3032,14 +3384,14 @@
         <v>192.66666666666666</v>
       </c>
       <c r="C23" s="12">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="D23" s="12">
         <v>329.9</v>
       </c>
       <c r="E23" s="10"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="14">
       <c r="A24" s="11" t="s">
         <v>43</v>
       </c>
@@ -3047,14 +3399,14 @@
         <v>192.66666666666666</v>
       </c>
       <c r="C24" s="12">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="D24" s="12">
         <v>331.63</v>
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="14">
       <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
@@ -3062,44 +3414,44 @@
         <v>192.66666666666666</v>
       </c>
       <c r="C25" s="12">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="D25" s="12">
         <v>321.24</v>
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="14">
       <c r="A26" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="10">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C26" s="12">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="D26" s="12">
         <v>335.94</v>
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="14">
       <c r="A27" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="10">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="C27" s="12">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="D27" s="12">
         <v>328.13</v>
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="14">
       <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
@@ -3107,14 +3459,14 @@
         <v>112.33333333333333</v>
       </c>
       <c r="C28" s="12">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="D28" s="12">
         <v>283.19</v>
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="14">
       <c r="A29" s="11" t="s">
         <v>45</v>
       </c>
@@ -3122,14 +3474,14 @@
         <v>112.33333333333333</v>
       </c>
       <c r="C29" s="12">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="D29" s="12">
         <v>263.64</v>
       </c>
       <c r="E29" s="12"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="14">
       <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
@@ -3137,14 +3489,14 @@
         <v>107.66666666666667</v>
       </c>
       <c r="C30" s="12">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="D30" s="12">
         <v>269.23</v>
       </c>
       <c r="E30" s="12"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="14">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -3152,14 +3504,14 @@
         <v>107.66666666666667</v>
       </c>
       <c r="C31" s="12">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="D31" s="12">
-        <v>271.84</v>
+        <v>271.83999999999997</v>
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="14">
       <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
@@ -3167,14 +3519,14 @@
         <v>113.16666666666667</v>
       </c>
       <c r="C32" s="12">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="D32" s="12">
         <v>268.52</v>
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="14">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
@@ -3182,14 +3534,14 @@
         <v>113.16666666666667</v>
       </c>
       <c r="C33" s="12">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="D33" s="12">
         <v>266.67</v>
       </c>
       <c r="E33" s="12"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="14">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
@@ -3197,14 +3549,14 @@
         <v>121.66666666666667</v>
       </c>
       <c r="C34" s="12">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="D34" s="12">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="14">
       <c r="A35" s="11" t="s">
         <v>31</v>
       </c>
@@ -3212,29 +3564,29 @@
         <v>121.66666666666667</v>
       </c>
       <c r="C35" s="12">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="D35" s="12">
-        <v>299.15</v>
+        <v>299.14999999999998</v>
       </c>
       <c r="E35" s="12"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="14">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="12">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="C36" s="12">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="D36" s="12">
         <v>307.69</v>
       </c>
       <c r="E36" s="17"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="14">
       <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
@@ -3249,7 +3601,7 @@
       </c>
       <c r="E37" s="12"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="14">
       <c r="A38" s="11" t="s">
         <v>47</v>
       </c>
@@ -3264,7 +3616,7 @@
       </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="14">
       <c r="A39" s="11" t="s">
         <v>47</v>
       </c>
@@ -3272,14 +3624,14 @@
         <v>168.5</v>
       </c>
       <c r="C39" s="12">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="D39" s="12">
         <v>329.27</v>
       </c>
       <c r="E39" s="17"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="14">
       <c r="A40" s="11" t="s">
         <v>48</v>
       </c>
@@ -3287,14 +3639,14 @@
         <v>153.5</v>
       </c>
       <c r="C40" s="12">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D40" s="12">
         <v>302.63</v>
       </c>
       <c r="E40" s="12"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="14">
       <c r="A41" s="11" t="s">
         <v>48</v>
       </c>
@@ -3302,14 +3654,14 @@
         <v>153.5</v>
       </c>
       <c r="C41" s="12">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="D41" s="12">
-        <v>309.21</v>
+        <v>309.20999999999998</v>
       </c>
       <c r="E41" s="17"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="14">
       <c r="A42" s="11" t="s">
         <v>49</v>
       </c>
@@ -3317,14 +3669,14 @@
         <v>128.33333333333334</v>
       </c>
       <c r="C42" s="12">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="D42" s="12">
-        <v>299.21</v>
+        <v>299.20999999999998</v>
       </c>
       <c r="E42" s="12"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="14">
       <c r="A43" s="11" t="s">
         <v>49</v>
       </c>
@@ -3332,14 +3684,14 @@
         <v>128.33333333333334</v>
       </c>
       <c r="C43" s="12">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="D43" s="12">
         <v>295.45</v>
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="14">
       <c r="A44" s="11" t="s">
         <v>49</v>
       </c>
@@ -3347,211 +3699,211 @@
         <v>128.33333333333334</v>
       </c>
       <c r="C44" s="12">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="D44" s="12">
         <v>306.45</v>
       </c>
       <c r="E44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="14">
       <c r="A45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="12">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="C45" s="12">
         <v>50</v>
       </c>
-      <c r="B45" s="12">
-        <v>26.166666666666668</v>
-      </c>
-      <c r="C45" s="12">
-        <v>34.0</v>
-      </c>
       <c r="D45" s="12">
-        <v>263.46</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>246.33377094470001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14">
       <c r="A46" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="12">
-        <v>26.166666666666668</v>
+        <v>54.333333333333336</v>
       </c>
       <c r="C46" s="12">
-        <v>50.0</v>
+        <v>49</v>
       </c>
       <c r="D46" s="12">
-        <v>261.26</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>251.36099075990001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14">
       <c r="A47" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="12">
-        <v>23.833333333333332</v>
+        <v>54.333333333333336</v>
       </c>
       <c r="C47" s="12">
-        <v>30.0</v>
+        <v>45</v>
       </c>
       <c r="D47" s="12">
-        <v>261.26</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>232.2338581297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14">
       <c r="A48" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="12">
-        <v>54.166666666666664</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="C48" s="12">
-        <v>51.0</v>
+        <v>34</v>
       </c>
       <c r="D48" s="12">
-        <v>234.19</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>263.45999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="12">
-        <v>54.166666666666664</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="C49" s="12">
-        <v>57.5</v>
+        <v>50</v>
       </c>
       <c r="D49" s="12">
-        <v>233.68</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>261.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="12">
-        <v>43.5</v>
+        <v>23.833333333333332</v>
       </c>
       <c r="C50" s="12">
-        <v>45.0</v>
+        <v>30</v>
       </c>
       <c r="D50" s="12">
-        <v>257.12</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>261.26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14">
       <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="12">
+        <v>54.166666666666664</v>
+      </c>
+      <c r="C51" s="12">
+        <v>51</v>
+      </c>
+      <c r="D51" s="12">
+        <v>234.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14">
+      <c r="A52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="12">
+        <v>54.166666666666664</v>
+      </c>
+      <c r="C52" s="12">
+        <v>57.5</v>
+      </c>
+      <c r="D52" s="12">
+        <v>233.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14">
+      <c r="A53" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12">
         <v>43.5</v>
       </c>
-      <c r="C51" s="12">
-        <v>41.0</v>
-      </c>
-      <c r="D51" s="12">
+      <c r="C53" s="12">
+        <v>45</v>
+      </c>
+      <c r="D53" s="12">
+        <v>257.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14">
+      <c r="A54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="12">
+        <v>43.5</v>
+      </c>
+      <c r="C54" s="12">
+        <v>41</v>
+      </c>
+      <c r="D54" s="12">
         <v>245.79</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="12">
-        <v>54.333333333333336</v>
-      </c>
-      <c r="C52" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="D52" s="12">
-        <v>246.3337709447</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="12">
-        <v>54.333333333333336</v>
-      </c>
-      <c r="C53" s="12">
-        <v>49.0</v>
-      </c>
-      <c r="D53" s="12">
-        <v>251.3609907599</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="12">
-        <v>54.333333333333336</v>
-      </c>
-      <c r="C54" s="12">
-        <v>45.0</v>
-      </c>
-      <c r="D54" s="12">
-        <v>232.2338581297</v>
-      </c>
-    </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="14">
       <c r="A55" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="12">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="C55" s="12">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D55" s="12">
         <v>346.67</v>
       </c>
       <c r="E55" s="12"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="14">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="12">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="C56" s="12">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D56" s="12">
         <v>344.83</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="14">
       <c r="A57" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="12">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="C57" s="12">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="D57" s="12">
         <v>351.35</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="14">
       <c r="A58" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="12">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="C58" s="12">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="D58" s="12">
         <v>342.28</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="14">
       <c r="A59" s="11" t="s">
         <v>52</v>
       </c>
@@ -3559,13 +3911,13 @@
         <v>140.66666666666666</v>
       </c>
       <c r="C59" s="12">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="D59" s="12">
         <v>350.36</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="14">
       <c r="A60" s="11" t="s">
         <v>52</v>
       </c>
@@ -3573,13 +3925,13 @@
         <v>140.66666666666666</v>
       </c>
       <c r="C60" s="12">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="D60" s="12">
         <v>350.36</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="14">
       <c r="A61" s="11" t="s">
         <v>52</v>
       </c>
@@ -3587,13 +3939,13 @@
         <v>139.33333333333334</v>
       </c>
       <c r="C61" s="12">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="D61" s="12">
         <v>360.54</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="14">
       <c r="A62" s="11" t="s">
         <v>52</v>
       </c>
@@ -3601,13 +3953,13 @@
         <v>139.33333333333334</v>
       </c>
       <c r="C62" s="12">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D62" s="12">
         <v>344.83</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="14">
       <c r="A63" s="21" t="s">
         <v>53</v>
       </c>
@@ -3615,13 +3967,13 @@
         <v>138.66666666666666</v>
       </c>
       <c r="C63" s="12">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D63" s="12">
         <v>344.83</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="14">
       <c r="A64" s="21" t="s">
         <v>53</v>
       </c>
@@ -3629,13 +3981,13 @@
         <v>138.66666666666666</v>
       </c>
       <c r="C64" s="12">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="D64" s="12">
         <v>366.67</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="14">
       <c r="A65" s="21" t="s">
         <v>53</v>
       </c>
@@ -3649,7 +4001,7 @@
         <v>343.64</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="14">
       <c r="A66" s="21" t="s">
         <v>54</v>
       </c>
@@ -3657,13 +4009,13 @@
         <v>112.66666666666667</v>
       </c>
       <c r="C66" s="12">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="D66" s="12">
         <v>330.43</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="14">
       <c r="A67" s="21" t="s">
         <v>54</v>
       </c>
@@ -3671,18 +4023,18 @@
         <v>112.66666666666667</v>
       </c>
       <c r="C67" s="12">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D67" s="12">
         <v>355.56</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="14">
       <c r="A68" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="12">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C68" s="12">
         <v>59.5</v>
@@ -3691,35 +4043,35 @@
         <v>386.55</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="14">
       <c r="A69" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B69" s="12">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C69" s="12">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D69" s="12">
-        <v>323.53</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>323.52999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14">
       <c r="A70" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B70" s="12">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C70" s="12">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D70" s="12">
         <v>294.12</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="14">
       <c r="A71" s="12" t="s">
         <v>56</v>
       </c>
@@ -3727,60 +4079,60 @@
         <v>135.83333333333334</v>
       </c>
       <c r="C71" s="12">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="D71" s="12">
         <v>340.43</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="14">
       <c r="A72" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B72" s="12">
-        <v>85.16666666666667</v>
+        <v>85.166666666666671</v>
       </c>
       <c r="C72" s="12">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="D72" s="12">
         <v>313.25</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="14">
       <c r="A73" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="12">
-        <v>85.16666666666667</v>
+        <v>85.166666666666671</v>
       </c>
       <c r="C73" s="12">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D73" s="12">
         <v>333.33</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="14">
       <c r="A74" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B74" s="12">
-        <v>85.16666666666667</v>
+        <v>85.166666666666671</v>
       </c>
       <c r="C74" s="12">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="D74" s="12">
         <v>362.75</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="14">
       <c r="A75" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B75" s="12">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C75" s="12">
         <v>36.5</v>
@@ -3789,35 +4141,35 @@
         <v>328.77</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="14">
       <c r="A76" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B76" s="12">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C76" s="12">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="D76" s="12">
-        <v>263.16</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>263.16000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14">
       <c r="A77" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B77" s="12">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="C77" s="12">
         <v>37.5</v>
       </c>
       <c r="D77" s="12">
-        <v>320.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="14">
       <c r="A78" s="12" t="s">
         <v>59</v>
       </c>
@@ -3825,13 +4177,13 @@
         <v>134.33333333333334</v>
       </c>
       <c r="C78" s="12">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="D78" s="12">
-        <v>303.28</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>303.27999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14">
       <c r="A79" s="12" t="s">
         <v>59</v>
       </c>
@@ -3839,32 +4191,32 @@
         <v>134.33333333333334</v>
       </c>
       <c r="C79" s="12">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="D79" s="12">
         <v>335.71</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="14">
       <c r="A80" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B80" s="12">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C80" s="12">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="D80" s="12">
         <v>303.92</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="14">
       <c r="A81" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B81" s="12">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C81" s="12">
         <v>105.5</v>
@@ -3873,68 +4225,68 @@
         <v>331.75</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="14">
       <c r="A82" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B82" s="12">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="C82" s="12">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="D82" s="12">
         <v>307.69</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="14">
       <c r="A83" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B83" s="12">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="C83" s="12">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="D83" s="12">
         <v>277.11</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" ht="14">
       <c r="A84" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B84" s="12">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="C84" s="12">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="D84" s="12">
-        <v>271.6</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>271.60000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14">
       <c r="A85" s="11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B85" s="12">
-        <v>92.66666666666667</v>
+        <v>92.666666666666671</v>
       </c>
       <c r="C85" s="12">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="D85" s="12">
-        <v>310.34</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="11" t="s">
-        <v>62</v>
+        <v>310.33999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14">
+      <c r="A86" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B86" s="12">
-        <v>92.66666666666667</v>
+        <v>92.666666666666671</v>
       </c>
       <c r="C86" s="12">
         <v>85.5</v>
@@ -3943,26 +4295,26 @@
         <v>327.49</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="11" t="s">
-        <v>62</v>
+    <row r="87" spans="1:4" ht="14">
+      <c r="A87" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B87" s="12">
-        <v>75.66666666666667</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="C87" s="12">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="D87" s="12">
         <v>328.77</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="11" t="s">
-        <v>62</v>
+    <row r="88" spans="1:4" ht="14">
+      <c r="A88" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B88" s="12">
-        <v>75.66666666666667</v>
+        <v>75.666666666666671</v>
       </c>
       <c r="C88" s="12">
         <v>75.5</v>
@@ -3971,231 +4323,282 @@
         <v>331.13</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="11" t="s">
-        <v>62</v>
+    <row r="89" spans="1:4" ht="14">
+      <c r="A89" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B89" s="12">
         <v>86.5</v>
       </c>
       <c r="C89" s="12">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="D89" s="12">
         <v>301.2</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="11" t="s">
-        <v>62</v>
+    <row r="90" spans="1:4" ht="14">
+      <c r="A90" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="B90" s="12">
         <v>86.5</v>
       </c>
       <c r="C90" s="12">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="D90" s="12">
         <v>301.2</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="14">
       <c r="A91" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="12">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="C91" s="12">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="D91" s="12">
         <v>407.69</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" ht="14">
       <c r="A92" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="12">
         <v>42.5</v>
       </c>
       <c r="C92" s="12">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="D92" s="12">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14">
       <c r="A93" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" s="12">
         <v>42.5</v>
       </c>
       <c r="C93" s="12">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D93" s="12">
-        <v>225.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14">
       <c r="A94" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" s="12">
         <v>42.5</v>
       </c>
       <c r="C94" s="12">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D94" s="12">
         <v>243.9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A95" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95">
+        <f>AVERAGE(41.5,48,38)</f>
+        <v>42.5</v>
+      </c>
+      <c r="C95" s="21">
+        <v>44</v>
+      </c>
+      <c r="D95" s="21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A96" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96:B97" si="0">AVERAGE(41.5,48,38)</f>
+        <v>42.5</v>
+      </c>
+      <c r="C96" s="21">
+        <v>40</v>
+      </c>
+      <c r="D96" s="21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A97" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="C97" s="21">
+        <v>41</v>
+      </c>
+      <c r="D97" s="21">
+        <v>243.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14">
+      <c r="A98" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="12">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="C98" s="12">
+        <v>40</v>
+      </c>
+      <c r="D98" s="12">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14">
+      <c r="A99" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="12">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="C99" s="12">
+        <v>41</v>
+      </c>
+      <c r="D99" s="12">
+        <v>268.29000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14">
+      <c r="A100" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="12">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="C100" s="12">
+        <v>46</v>
+      </c>
+      <c r="D100" s="12">
+        <v>260.87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14">
+      <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="12">
-        <v>45.833333333333336</v>
-      </c>
-      <c r="C95" s="12">
-        <v>40.0</v>
-      </c>
-      <c r="D95" s="12">
-        <v>275.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="11" t="s">
+      <c r="B101" s="12">
+        <v>50.5</v>
+      </c>
+      <c r="C101" s="12">
+        <v>51</v>
+      </c>
+      <c r="D101" s="12">
+        <v>274.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14">
+      <c r="A102" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B96" s="12">
-        <v>45.833333333333336</v>
-      </c>
-      <c r="C96" s="12">
-        <v>41.0</v>
-      </c>
-      <c r="D96" s="12">
-        <v>268.29</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="12">
-        <v>45.833333333333336</v>
-      </c>
-      <c r="C97" s="12">
-        <v>46.0</v>
-      </c>
-      <c r="D97" s="12">
-        <v>260.87</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="s">
+      <c r="B102" s="12">
+        <v>50.5</v>
+      </c>
+      <c r="C102" s="12">
+        <v>49</v>
+      </c>
+      <c r="D102" s="12">
+        <v>306.12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14">
+      <c r="A103" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B98" s="12">
-        <v>50.5</v>
-      </c>
-      <c r="C98" s="12">
-        <v>51.0</v>
-      </c>
-      <c r="D98" s="12">
-        <v>274.51</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="B103" s="12">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="C103" s="12">
+        <v>90</v>
+      </c>
+      <c r="D103" s="12">
+        <v>277.77999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="14">
+      <c r="A104" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="12">
-        <v>50.5</v>
-      </c>
-      <c r="C99" s="12">
-        <v>49.0</v>
-      </c>
-      <c r="D99" s="12">
-        <v>306.12</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" s="12">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="C100" s="12">
-        <v>90.0</v>
-      </c>
-      <c r="D100" s="12">
-        <v>277.78</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B101" s="12">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="C101" s="12">
-        <v>95.0</v>
-      </c>
-      <c r="D101" s="12">
+      <c r="B104" s="12">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="C104" s="12">
+        <v>95</v>
+      </c>
+      <c r="D104" s="12">
         <v>273.68</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" s="12">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="C102" s="12">
+    <row r="105" spans="1:4" ht="14">
+      <c r="A105" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" s="12">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="C105" s="12">
         <v>90.5</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D105" s="12">
         <v>243.09</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="12">
-        <v>79.33333333333333</v>
-      </c>
-      <c r="C103" s="12">
+    <row r="106" spans="1:4" ht="14">
+      <c r="A106" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="12">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="C106" s="12">
         <v>78.5</v>
       </c>
-      <c r="D103" s="12">
-        <v>318.47</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="12">
-        <v>79.33333333333333</v>
-      </c>
-      <c r="C104" s="12">
-        <v>77.0</v>
-      </c>
-      <c r="D104" s="12">
+      <c r="D106" s="12">
+        <v>318.47000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="14">
+      <c r="A107" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="12">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="C107" s="12">
+        <v>77</v>
+      </c>
+      <c r="D107" s="12">
         <v>324.68</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/summary_densitydata.xlsx
+++ b/summary_densitydata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1440" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="snowpit" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -3054,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3888,6 +3890,10 @@
       <c r="D57" s="12">
         <v>351.35</v>
       </c>
+      <c r="E57">
+        <f>MAX(D55:D62)</f>
+        <v>360.54</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="14">
       <c r="A58" s="11" t="s">
@@ -3900,6 +3906,10 @@
         <v>149</v>
       </c>
       <c r="D58" s="12">
+        <v>342.28</v>
+      </c>
+      <c r="E58">
+        <f>MIN(D55:D62)</f>
         <v>342.28</v>
       </c>
     </row>
